--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/docxpractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F58E6-1CF5-074F-B5FE-C86401D23CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A719AC-FF57-AA45-A954-DE6896E2AA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="5020" windowWidth="24000" windowHeight="9160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,6 +1105,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0C68243C10BC849A80E41F4C8ED6479" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f43b4ac3427a56451ee4ee6d31efac23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e4dbda9-7788-4995-813d-c92e416d68f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02256cd9e1b564240a1b8278b34d13e2" ns2:_="">
     <xsd:import namespace="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
@@ -1164,24 +1181,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4863AFF1-FC19-43DE-8846-8BDA4EFD0A13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1196,27 +1219,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/docxpractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A719AC-FF57-AA45-A954-DE6896E2AA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADA48D5-F93A-8543-82FE-30F11ECB8F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="5020" windowWidth="24000" windowHeight="9160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11840" yWindow="2540" windowWidth="24000" windowHeight="9160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Reviewer/Approver</t>
   </si>
@@ -82,6 +82,30 @@
   </si>
   <si>
     <t>Adrian</t>
+  </si>
+  <si>
+    <t>TARGEST</t>
+  </si>
+  <si>
+    <t>ACE:SRS:2</t>
+  </si>
+  <si>
+    <t>ACE:SRS:5</t>
+  </si>
+  <si>
+    <t>ACE:SRS:6</t>
+  </si>
+  <si>
+    <t>ACE:SRS:10</t>
+  </si>
+  <si>
+    <t>ACE:SRS:100</t>
+  </si>
+  <si>
+    <t>ACE:SRS:110</t>
+  </si>
+  <si>
+    <t>ACE:SRS:120</t>
   </si>
 </sst>
 </file>
@@ -945,9 +969,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B67BF4B-0B06-45C6-8CE8-D727A64CB61B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -979,7 +1003,9 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="25" t="s">
         <v>19</v>
       </c>
@@ -1017,86 +1043,146 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RTM.xlsx
+++ b/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Documents/docxpractice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADA48D5-F93A-8543-82FE-30F11ECB8F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FCF6EC0-6622-C241-9C4D-D8D1A330FF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11840" yWindow="2540" windowWidth="24000" windowHeight="9160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,14 +1191,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1207,7 +1199,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0C68243C10BC849A80E41F4C8ED6479" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f43b4ac3427a56451ee4ee6d31efac23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5e4dbda9-7788-4995-813d-c92e416d68f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02256cd9e1b564240a1b8278b34d13e2" ns2:_="">
     <xsd:import namespace="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
@@ -1267,22 +1259,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Details xmlns="5e4dbda9-7788-4995-813d-c92e416d68f0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE171CC-AF41-481C-8D01-63AD65244025}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1290,7 +1275,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4863AFF1-FC19-43DE-8846-8BDA4EFD0A13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1305,4 +1290,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C11C45-3572-4B8F-A740-CCB27FFED834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5e4dbda9-7788-4995-813d-c92e416d68f0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>